--- a/data/trans_bre/P12B-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P12B-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,16</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>4,0</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-5,84</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>13,46</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>1,61%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>50,36%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-45,5%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>202,55%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-3.547124478561252</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>4.943885666957859</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-6.68716468320526</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>12.17627847026997</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.2730035292547177</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.6002389765147653</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.5111363009531453</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>1.772300648605197</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-12,77; 13,9</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-8,67; 16,89</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-19,52; 8,12</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-2,57; 43,9</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-72,58; 454,99</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-70,16; 629,75</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-90,25; 199,88</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-63,57; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-19.61433771882929</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-7.850309137720987</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-20.32316307083383</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-3.464215908179077</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.8339547904661064</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.6872392783941861</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.9090416834891257</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.7091394180135127</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>9.922149137594246</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>19.97223383900603</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>6.275444488643362</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>37.28183142651076</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>2.228486564307371</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>7.915841040135664</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>1.471355090679936</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>18.1639282037845</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-0,83</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-5,02</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,31</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-6,49</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-11,5%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-48,63%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>5,82%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-45,79%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-6,01; 4,83</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-19,17; 1,93</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-4,11; 5,47</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-23,13; 1,61</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-59,29; 131,54</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-85,47; 43,43</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-52,56; 207,14</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-86,32; 23,16</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>0.2534694731114825</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-3.557834610096093</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.3108819346835268</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-6.200015146864904</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.03919997682965353</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.4010451281554173</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.05870473144453071</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.4548101615480812</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-2,06</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-2,11</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-4,53</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,42</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-28,65%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-30,88%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-42,81%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>4,74%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-4.706618672721156</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-14.7762182260741</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-4.188078920843983</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-23.26155852309107</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.5335326597206865</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.8186130549094224</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.5387957897920589</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.8690040781869853</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-8,29; 3,43</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-7,78; 3,09</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-11,69; 1,54</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-6,98; 6,92</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-74,34; 99,83</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-75,29; 101,43</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-76,09; 38,67</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-53,45; 132,66</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>5.955418826173404</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>2.524817991230611</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>5.431430203433224</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>1.827491588446063</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>1.651456010328731</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.7000447964259423</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>1.939409893107068</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.2643503569741474</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,212 +827,211 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-3.989057791851484</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-2.078743660718475</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-4.334479328678998</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-0.1864152580098574</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.454374705763727</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.3107296882098548</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.4121602794346917</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.02027540303849382</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-13.82931893687953</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-7.802647449530779</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-11.77126807932257</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-7.914681801482458</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.8546062017623669</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.7546351267697696</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.7558154068458164</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.5672525330279324</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>1.531277070606114</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>3.037910773773131</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>1.586273130702663</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>6.305336928011263</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.426730193139726</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.9760929524394487</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.4036868528932315</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>1.209602736163737</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-1,22</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-2,73</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-2,25</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-0,35</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-16,03%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-31,35%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-27,11%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-3,2%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-5,2; 2,24</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-10,03; 1,48</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-6,38; 1,28</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-8,46; 7,3</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-52,64; 39,82</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-68,71; 25,97</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-58,25; 21,17</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-55,47; 98,04</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-1.962139520239802</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-1.84007915457656</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-2.236582627910488</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-0.6839012607855868</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.2373611577571099</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.2303442058245528</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.2731761337729597</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.06220214083851628</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-6.685485529604334</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-7.513497021464656</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-6.397712997538204</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-9.454122144420559</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.5972335521329697</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.6294242092623341</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.5770735638197539</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.5793870177942345</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>1.593240018287503</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>2.15876138735544</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>1.378568616018401</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>5.963765155864826</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.3084798215723828</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.4115475803289734</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.2432811513232586</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.835605815378952</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
